--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1864178.692834095</v>
+        <v>1867486.529723128</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="G2" t="n">
-        <v>18.31780124109496</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,14 +701,14 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="3">
@@ -738,22 +738,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="H3" t="n">
         <v>46.38724422570589</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>94.703106837858</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>25.10915617133955</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.9861682051759</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.98518169690218</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>49.65289762498703</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>220.8837963815378</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>130.9180362598743</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>153.6529064549858</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1862,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>84.97365353379641</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>33.80371536444976</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.0332794830611</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>46.85186398604306</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,58 +2333,58 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2515,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>79.44674520176419</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>36.66673487976205</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2710,76 +2710,76 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>72.47049842454874</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>60.83777802708705</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,10 +2889,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>33.83793910612813</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>72.39544442095786</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>132.9689388813999</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>84.47305450481102</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>104.7383832473596</v>
       </c>
     </row>
     <row r="40">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3885,7 +3885,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,73 +3977,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>64.30465762731372</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.445552861383849</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F2" t="n">
-        <v>142.9599403163586</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>124.457110779899</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4334,46 +4334,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="E3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="F3" t="n">
+        <v>105.9439968277793</v>
+      </c>
+      <c r="G3" t="n">
         <v>51.89093722176946</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4413,19 +4413,19 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4434,22 +4434,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
         <v>159.9970564337892</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>156.0653213432986</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>102.0122617372887</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="R4" t="n">
-        <v>27.95824356358591</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S4" t="n">
-        <v>27.95824356358591</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307.1033079837604</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6502787026334</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D6" t="n">
-        <v>132.6502787026334</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E6" t="n">
-        <v>132.6502787026334</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6502787026334</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,10 +4653,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>938.6943714991821</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>710.4707532355711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>475.3186450038284</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>475.3186450038284</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>475.3186450038284</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>475.3186450038284</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4747,28 +4747,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9366034337592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9366034337592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9366034337592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>255.9366034337592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>499.3853800778592</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>945.8903053117451</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>772.472960762414</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>570.28636612118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>570.28636612118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>570.28636612118</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>570.28636612118</v>
+        <v>639.3158394687493</v>
       </c>
       <c r="X9" t="n">
-        <v>362.4348659156472</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4978,28 +4978,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D12" t="n">
         <v>19.28114311021272</v>
@@ -5127,10 +5127,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
         <v>243.9530410142718</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5385,22 +5385,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>808.852199495499</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5601,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,25 +5698,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>929.9119884758385</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X20" t="n">
-        <v>718.7806050553886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>655.1273272985679</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C21" t="n">
-        <v>655.1273272985679</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D21" t="n">
-        <v>655.1273272985679</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E21" t="n">
-        <v>495.8898722931124</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F21" t="n">
-        <v>349.3553143199974</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G21" t="n">
-        <v>210.6244889026129</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>743.3146958238879</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>515.0910775602769</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y21" t="n">
-        <v>655.1273272985679</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="22">
@@ -5905,10 +5905,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K22" t="n">
         <v>829.5248650203655</v>
@@ -5969,16 +5969,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,28 +6008,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V23" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W23" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X23" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
         <v>262.7299197543128</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>846.5570557448675</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>603.1082791007675</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>286.10283626238</v>
+        <v>238.2612061051368</v>
       </c>
       <c r="C27" t="n">
-        <v>286.10283626238</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>286.10283626238</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>286.10283626238</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>286.10283626238</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>147.3720108449955</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6309,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6339,16 +6339,16 @@
         <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>454.3181732824481</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>454.3181732824481</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>454.3181732824481</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y27" t="n">
-        <v>454.3181732824481</v>
+        <v>238.2612061051368</v>
       </c>
     </row>
     <row r="28">
@@ -6427,7 +6427,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>728.9050472788936</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C30" t="n">
-        <v>728.9050472788936</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="D30" t="n">
-        <v>667.4527462414319</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="E30" t="n">
-        <v>508.2152912359765</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>306.3149732436401</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>167.5841478262556</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>54.21501223383494</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y30" t="n">
-        <v>728.9050472788936</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.1033079837604</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>890.9304439743152</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>890.9304439743152</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>890.9304439743152</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>890.9304439743152</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>890.9304439743152</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>890.9304439743152</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X33" t="n">
-        <v>683.0789437687823</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y33" t="n">
-        <v>475.3186450038284</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="34">
@@ -6895,10 +6895,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
         <v>829.5248650203655</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7023,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>352.9716273967953</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>352.9716273967953</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W36" t="n">
-        <v>352.9716273967953</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X36" t="n">
-        <v>352.9716273967953</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y36" t="n">
-        <v>352.9716273967953</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="37">
@@ -7126,7 +7126,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7266,37 +7266,37 @@
         <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>777.5613083818946</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>777.5613083818946</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>777.5613083818946</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>777.5613083818946</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>777.5613083818946</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7497,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>852.7947480059265</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>852.7947480059265</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>852.7947480059265</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>852.7947480059265</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7685,13 +7685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>304.9965798960495</v>
+        <v>258.688372014889</v>
       </c>
       <c r="C45" t="n">
-        <v>304.9965798960495</v>
+        <v>84.23534273376194</v>
       </c>
       <c r="D45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.4620219229344</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>19.73119650554995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>19.73119650554995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>19.73119650554995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X45" t="n">
-        <v>512.7568786610034</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y45" t="n">
-        <v>304.9965798960495</v>
+        <v>426.903709034957</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7822,34 +7822,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,10 +8061,10 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8076,7 +8076,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.3321807117309</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,13 +9957,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10443,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>194.4189411335972</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>37.29528213497613</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23385,7 +23385,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,7 +23394,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>120.4276166479622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23625,22 +23625,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>52.02978932231852</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,7 +23750,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>346.9173198539276</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,13 +24014,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>116.0654025766999</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24054,22 +24054,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>12.20216475343534</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>153.3128647087785</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24209,7 +24209,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>122.2378149818625</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24336,22 +24336,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24403,16 +24403,16 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,10 +24449,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24494,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>93.26175378655155</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24537,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>75.56870935673442</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24698,10 +24698,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>138.0053911458572</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,13 +24740,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24762,10 +24762,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>86.60728753755171</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,10 +24777,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>55.55869374528694</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,13 +24838,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>56.43835112799553</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>27.76238973168527</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>34.56756182663716</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>92.97244319957488</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,13 +25406,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,19 +25439,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>87.2101165990268</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>100.9443125299447</v>
       </c>
     </row>
     <row r="40">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25646,10 +25646,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,7 +25682,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,16 +25755,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>61.53338767417523</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25773,7 +25773,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25865,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25941,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>83.14040793732504</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3010384648740078</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340629.3786892316</v>
+        <v>340629.3786892317</v>
       </c>
     </row>
   </sheetData>
@@ -26317,40 +26317,40 @@
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="F2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="H2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="I2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="J2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="K2" t="n">
         <v>240932.9751704319</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>240932.9751704319</v>
+      </c>
+      <c r="M2" t="n">
         <v>240932.9751704318</v>
-      </c>
-      <c r="L2" t="n">
-        <v>240932.9751704318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="O2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="P2" t="n">
         <v>240932.9751704318</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210484.2884778133</v>
+        <v>210782.2945021654</v>
       </c>
       <c r="C6" t="n">
-        <v>206864.0588965687</v>
+        <v>207272.632069012</v>
       </c>
       <c r="D6" t="n">
-        <v>267440.3810832367</v>
+        <v>267848.9542556803</v>
       </c>
       <c r="E6" t="n">
-        <v>225691.200736523</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="F6" t="n">
-        <v>225691.200736523</v>
+        <v>226099.7739089663</v>
       </c>
       <c r="G6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089661</v>
       </c>
       <c r="H6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="I6" t="n">
-        <v>225691.200736523</v>
+        <v>226099.7739089663</v>
       </c>
       <c r="J6" t="n">
-        <v>211689.9685962436</v>
+        <v>212098.5417686869</v>
       </c>
       <c r="K6" t="n">
-        <v>177434.2478028903</v>
+        <v>177842.8209753336</v>
       </c>
       <c r="L6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="M6" t="n">
-        <v>225691.200736523</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="N6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="O6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="P6" t="n">
-        <v>225691.2007365229</v>
+        <v>226099.7739089662</v>
       </c>
     </row>
   </sheetData>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>371.6914995443602</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9849362740401</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>285.9622731058174</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0578213389329</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.84820001079058</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27506,7 +27506,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>142.5415449069835</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.90851901298149</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>204.5051205979195</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>42.64041032535263</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>175.0555725234821</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.7786181105064</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>187.8898775365355</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.8829497359738</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,7 +27944,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.17265245574094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>202.0420855359326</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34702,19 +34702,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35969,10 +35969,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37163,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1867486.529723128</v>
+        <v>1869810.201536996</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F2" t="n">
-        <v>35.18454619735122</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24.95505229511725</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="H3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,14 +825,14 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,64 +904,64 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>220.6450016938488</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>94.703106837858</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1026,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>84.41978777916125</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>195.4186406871859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>33.69176698831624</v>
       </c>
       <c r="W9" t="n">
-        <v>49.65289762498703</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>110.1497834296626</v>
+        <v>8.399199482490115</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>130.9180362598743</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1688,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>113.3676008336951</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>153.6529064549858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.56642338407702</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1999,55 +2001,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,56 +2089,56 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>46.85186398604306</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>15.50991635950218</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>31.60815104066432</v>
       </c>
     </row>
     <row r="25">
@@ -2521,16 +2523,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>44.30348359856715</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>79.44674520176419</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2885,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.83793910612813</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,10 +2921,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>104.6952467605796</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,55 +2952,55 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3111,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3226,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>54.82907102477792</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>231.863169161659</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3518,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>71.01467844038818</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>29.79900896488251</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3882,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,61 +3897,61 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>200.3360962888297</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>241.0142888776591</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>64.30465762731372</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>24.30877648367636</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4313,19 +4315,19 @@
         <v>105.9439968277793</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>44.94543647256599</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>29.48812585121745</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,13 +4336,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4355,7 +4357,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
         <v>159.9970564337892</v>
@@ -4370,7 +4372,7 @@
         <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y2" t="n">
         <v>105.9439968277793</v>
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9439968277793</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
-        <v>57.25840604064623</v>
-      </c>
-      <c r="M3" t="n">
-        <v>108.0953086000985</v>
-      </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4452,7 +4454,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>156.0653213432986</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0122617372887</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0122617372887</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0122617372887</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0122617372887</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>102.0122617372887</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>79.51782554952828</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>106.8319505572413</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>146.0199887494634</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>189.7108394048997</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>214.050116039799</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>214.050116039799</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>159.9970564337892</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>159.9970564337892</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>159.9970564337892</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>159.9970564337892</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="V4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>490.789139032637</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>497.7346397818405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>511.7666217610367</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>352.5291667555812</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>205.9946087824662</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4647,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.701031422288</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625565</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625565</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184564</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>269.6754205035162</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>269.6754205035162</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.7040404982626</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>930.0250676436501</v>
       </c>
       <c r="W9" t="n">
-        <v>639.3158394687493</v>
+        <v>930.0250676436501</v>
       </c>
       <c r="X9" t="n">
-        <v>431.4643392632165</v>
+        <v>930.0250676436501</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.7040404982626</v>
+        <v>930.0250676436501</v>
       </c>
     </row>
     <row r="10">
@@ -4978,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C11" t="n">
-        <v>710.516763498309</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X11" t="n">
-        <v>710.516763498309</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.516763498309</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>304.9965798960495</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C12" t="n">
-        <v>130.5435506149225</v>
+        <v>279.865144001321</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5123,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W12" t="n">
-        <v>720.6083788665362</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X12" t="n">
-        <v>512.7568786610034</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y12" t="n">
-        <v>304.9965798960495</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5239,10 +5241,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S14" t="n">
-        <v>601.5428246748836</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T14" t="n">
-        <v>376.1934816808115</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U14" t="n">
-        <v>243.9530410142718</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V14" t="n">
-        <v>243.9530410142718</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>243.9530410142718</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>243.9530410142718</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>640.636862475431</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C15" t="n">
-        <v>466.183833194304</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D15" t="n">
-        <v>317.2494235330527</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5367,40 +5369,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>574.9575533993473</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y15" t="n">
-        <v>808.852199495499</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5433,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D18" t="n">
-        <v>640.669716568258</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4322615628025</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>919.0405662337907</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>690.8169479701799</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>690.8169479701799</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>690.8169479701799</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>482.9654477646471</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>482.9654477646471</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D20" t="n">
-        <v>343.8760884571613</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E20" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>587.3248651012614</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>587.3248651012614</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V20" t="n">
-        <v>587.3248651012614</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W20" t="n">
-        <v>587.3248651012614</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>587.3248651012614</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.8760884571613</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>279.9389693285341</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>743.3146958238879</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>515.0910775602769</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>279.9389693285341</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W21" t="n">
-        <v>279.9389693285341</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>279.9389693285341</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>279.9389693285341</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,16 +6074,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X24" t="n">
-        <v>55.04605772994853</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6171,13 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>238.2612061051368</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>446.0215048700907</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>446.0215048700907</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y27" t="n">
-        <v>238.2612061051368</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="28">
@@ -6406,25 +6408,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>452.8495312167552</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C30" t="n">
-        <v>452.8495312167552</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>452.8495312167552</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>452.8495312167552</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>306.3149732436401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>167.5841478262556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>54.21501223383494</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>583.7175070085548</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>583.7175070085548</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>583.7175070085548</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="X30" t="n">
-        <v>452.8495312167552</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.8495312167552</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>111.2071172886402</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C33" t="n">
-        <v>111.2071172886402</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X33" t="n">
-        <v>318.9674160535941</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.2071172886402</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,16 +6970,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
         <v>262.7299197543128</v>
@@ -6990,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2696759935595</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>75.41817578802664</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>75.41817578802664</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7284,16 +7286,16 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>125.0774898247174</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>125.0774898247174</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7351,13 +7353,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>72.23626279480629</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,19 +7517,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
         <v>19.28114311021272</v>
@@ -7597,22 +7599,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>258.688372014889</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C45" t="n">
-        <v>84.23534273376194</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7760,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>838.3333063830407</v>
       </c>
       <c r="V45" t="n">
-        <v>634.6640077999109</v>
+        <v>838.3333063830407</v>
       </c>
       <c r="W45" t="n">
-        <v>634.6640077999109</v>
+        <v>594.8845297389407</v>
       </c>
       <c r="X45" t="n">
-        <v>634.6640077999109</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y45" t="n">
-        <v>426.903709034957</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,10 +8306,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -10203,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10433,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>194.4189411335972</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23324,7 +23326,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37.29528213497613</v>
+        <v>139.0458660821486</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23516,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>120.4276166479622</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23574,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,7 +23588,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>86.79712786112653</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.02978932231852</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,10 +23864,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>155.5983053107446</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>378.6650540150651</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>346.9173198539276</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>153.3128647087785</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>217.2906707899231</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24145,13 +24147,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,16 +24265,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24291,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>122.2378149818625</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>174.07454473664</v>
       </c>
     </row>
     <row r="25">
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>120.394135900372</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24491,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>93.26175378655155</v>
+        <v>137.3012335147773</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24725,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24773,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>55.55869374528694</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>95.46948193424195</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,10 +24919,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24999,10 +25001,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>56.43835112799553</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25114,10 +25116,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25251,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56756182663716</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>0.9374179877662243</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25406,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>138.0053911458572</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25524,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>100.9443125299447</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25591,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>169.9996104372708</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3657197299391</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>148.9048724285834</v>
+        <v>345.9756526602164</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>145.2236497783945</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>83.14040793732504</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>201.6326055972985</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340629.3786892316</v>
+        <v>340629.3786892315</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="F2" t="n">
         <v>240932.9751704319</v>
@@ -26332,10 +26334,10 @@
         <v>240932.9751704318</v>
       </c>
       <c r="I2" t="n">
+        <v>240932.9751704318</v>
+      </c>
+      <c r="J2" t="n">
         <v>240932.9751704319</v>
-      </c>
-      <c r="J2" t="n">
-        <v>240932.9751704318</v>
       </c>
       <c r="K2" t="n">
         <v>240932.9751704319</v>
@@ -26344,7 +26346,7 @@
         <v>240932.9751704319</v>
       </c>
       <c r="M2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
         <v>240932.9751704319</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26421,7 +26423,7 @@
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210782.2945021654</v>
+        <v>210782.2945021655</v>
       </c>
       <c r="C6" t="n">
-        <v>207272.632069012</v>
+        <v>207272.6320690124</v>
       </c>
       <c r="D6" t="n">
         <v>267848.9542556803</v>
@@ -26531,28 +26533,28 @@
         <v>226099.7739089662</v>
       </c>
       <c r="F6" t="n">
-        <v>226099.7739089663</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="G6" t="n">
-        <v>226099.7739089661</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="H6" t="n">
         <v>226099.7739089662</v>
       </c>
       <c r="I6" t="n">
-        <v>226099.7739089663</v>
+        <v>226099.7739089662</v>
       </c>
       <c r="J6" t="n">
         <v>212098.5417686869</v>
       </c>
       <c r="K6" t="n">
-        <v>177842.8209753336</v>
+        <v>177842.8209753337</v>
       </c>
       <c r="L6" t="n">
         <v>226099.7739089662</v>
       </c>
       <c r="M6" t="n">
-        <v>226099.7739089662</v>
+        <v>226099.7739089663</v>
       </c>
       <c r="N6" t="n">
         <v>226099.7739089662</v>
@@ -26561,7 +26563,7 @@
         <v>226099.7739089662</v>
       </c>
       <c r="P6" t="n">
-        <v>226099.7739089662</v>
+        <v>226099.7739089661</v>
       </c>
     </row>
   </sheetData>
@@ -27385,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>371.6914995443602</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>314.5197498206499</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>90.20968161124688</v>
       </c>
       <c r="H3" t="n">
-        <v>65.84820001079058</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27524,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>142.5415449069835</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27622,22 +27624,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>149.0860989846203</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,10 +27709,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>42.64041032535263</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27746,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5117130164528</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.4190336299326</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>330.8829497359738</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>27.67720887694546</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27952,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27989,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>199.108820161109</v>
       </c>
       <c r="W9" t="n">
-        <v>202.0420855359326</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34702,16 +34704,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51.35040662570935</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,10 +35026,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35735,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37318,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38026,10 +38028,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38099,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1869810.201536996</v>
+        <v>1800958.905095558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5384495.129918385</v>
+        <v>5384495.129918384</v>
       </c>
     </row>
     <row r="11">
@@ -667,22 +667,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>24.95505229511725</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G3" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>220.6450016938488</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.901959056055929</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>195.4186406871859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>33.69176698831624</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>241.0142888776591</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D12" t="n">
-        <v>8.399199482490115</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C14" t="n">
         <v>241.0142888776591</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>113.3676008336951</v>
+        <v>84.14750936819266</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.56642338407702</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>15.50991635950218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>123.9717416665522</v>
       </c>
       <c r="Y24" t="n">
-        <v>31.60815104066432</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D26" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>35.40726547353844</v>
+        <v>118.6422217161165</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>94.41048699370604</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>104.6952467605796</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,11 +3034,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>97.44849695414119</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3228,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>63.9067613594508</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>231.863169161659</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.3261858846177895</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>116.6930783966232</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.234466016111835</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>24.30877648367636</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>144.7609927521133</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4155,34 +4155,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>51.89093722176946</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>44.94543647256599</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>29.48812585121745</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4339,10 +4339,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.050116039799</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4421,13 +4421,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4454,7 +4454,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="C4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="E4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="F4" t="n">
+        <v>112.3871215328157</v>
+      </c>
+      <c r="G4" t="n">
         <v>58.33406192680583</v>
-      </c>
-      <c r="C4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="E4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58.33406192680583</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
         <v>4.28100232079598</v>
@@ -4509,31 +4509,31 @@
         <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>84.76023320505688</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>497.7346397818405</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>497.7346397818405</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>497.7346397818405</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>497.7346397818405</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>490.789139032637</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>497.7346397818405</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>497.7346397818405</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.6754205035162</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>269.6754205035162</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6754205035162</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>269.6754205035162</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>756.5729737917163</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>513.1241971476163</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>513.1241971476163</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>269.6754205035162</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>269.6754205035162</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>269.6754205035162</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>761.8097306235821</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>587.3567013424552</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>438.4222916812039</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>930.0250676436501</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>930.0250676436501</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>930.0250676436501</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>930.0250676436501</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.9366034337592</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>454.3181732824481</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C12" t="n">
-        <v>279.865144001321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5123,10 +5123,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
         <v>304.2053859195205</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>454.3181732824481</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>454.3181732824481</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X12" t="n">
-        <v>454.3181732824481</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y12" t="n">
-        <v>454.3181732824481</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="13">
@@ -5226,19 +5226,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y14" t="n">
-        <v>475.3318284112885</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
         <v>19.28114311021272</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>574.9575533993473</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U15" t="n">
-        <v>346.7339351357363</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V15" t="n">
-        <v>346.7339351357363</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W15" t="n">
-        <v>346.7339351357363</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X15" t="n">
-        <v>346.7339351357363</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y15" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
         <v>19.28114311021272</v>
@@ -5457,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.7766548071333</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>314.750110744579</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C18" t="n">
-        <v>314.750110744579</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D18" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E18" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>919.0405662337907</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>690.8169479701799</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>690.8169479701799</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>690.8169479701799</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>482.9654477646471</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y18" t="n">
-        <v>482.9654477646471</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="19">
@@ -5697,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>645.0344492409727</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5931,16 +5931,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X24" t="n">
-        <v>51.20856840381305</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.9366034337592</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C26" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>499.3853800778592</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>499.3853800778592</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>255.9366034337592</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="28">
@@ -6408,13 +6408,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W29" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X29" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Y29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6554,7 +6554,7 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>583.7175070085548</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>583.7175070085548</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>583.7175070085548</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W30" t="n">
-        <v>340.2687303644548</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6648,19 +6648,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.90796037760316</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>23.90796037760316</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>865.624330304433</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>637.4007120408221</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="W33" t="n">
-        <v>23.90796037760316</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="X33" t="n">
-        <v>23.90796037760316</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.90796037760316</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6876,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>461.2466632505798</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="37">
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="T38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X38" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y38" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T38" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>19.61062380174585</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7256,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7289,16 +7289,16 @@
         <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="40">
@@ -7353,28 +7353,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>752.9257720901863</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V44" t="n">
-        <v>752.9257720901863</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C45" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D45" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>838.3333063830407</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>838.3333063830407</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W45" t="n">
-        <v>594.8845297389407</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X45" t="n">
-        <v>387.0330295334078</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y45" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8069,16 +8069,16 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>360.302996258564</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>120.394135900372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23308,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>145.2236497783945</v>
@@ -23339,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D12" t="n">
-        <v>139.0458660821486</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C14" t="n">
         <v>124.2586028933485</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23554,7 +23554,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>86.79712786112653</v>
+        <v>116.0172193266289</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23697,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>155.5983053107446</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>378.6650540150651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24101,19 +24101,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>217.2906707899231</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2941050228172</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>246.5201351062217</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>81.80124353692528</v>
       </c>
       <c r="Y24" t="n">
-        <v>174.07454473664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D26" t="n">
-        <v>120.394135900372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>137.3012335147773</v>
+        <v>54.06627727219926</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24727,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6853625704253</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>95.46948193424195</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,10 +24922,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>153.0645313606844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>102.7162317406804</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25116,10 +25116,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>108.8017376288649</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0.9374179877662243</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25441,25 +25441,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="39">
@@ -25472,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>144.7430265087661</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25529,13 +25529,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>116.1075087528021</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>136.2759056302994</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>406.0682714990232</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>345.9756526602164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,10 +25952,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>201.6326055972985</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>61.01199245136419</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340629.3786892317</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340629.3786892316</v>
+        <v>340629.3786892315</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>340629.3786892316</v>
+        <v>340629.3786892317</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340629.3786892315</v>
+        <v>340629.3786892316</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>340629.3786892316</v>
+        <v>340629.3786892317</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
         <v>240932.9751704319</v>
@@ -26328,19 +26328,19 @@
         <v>240932.9751704319</v>
       </c>
       <c r="G2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="H2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="I2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
       <c r="J2" t="n">
         <v>240932.9751704319</v>
       </c>
       <c r="K2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="L2" t="n">
         <v>240932.9751704319</v>
@@ -26349,13 +26349,13 @@
         <v>240932.9751704319</v>
       </c>
       <c r="N2" t="n">
-        <v>240932.9751704319</v>
+        <v>240932.9751704318</v>
       </c>
       <c r="O2" t="n">
         <v>240932.9751704318</v>
       </c>
       <c r="P2" t="n">
-        <v>240932.9751704318</v>
+        <v>240932.9751704319</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210782.2945021655</v>
+        <v>210782.2945021652</v>
       </c>
       <c r="C6" t="n">
-        <v>207272.6320690124</v>
+        <v>207272.6320690122</v>
       </c>
       <c r="D6" t="n">
-        <v>267848.9542556803</v>
+        <v>267848.9542556805</v>
       </c>
       <c r="E6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="F6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="G6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="H6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="I6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="J6" t="n">
-        <v>212098.5417686869</v>
+        <v>199880.5311486465</v>
       </c>
       <c r="K6" t="n">
-        <v>177842.8209753337</v>
+        <v>165624.8103552931</v>
       </c>
       <c r="L6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="M6" t="n">
-        <v>226099.7739089663</v>
+        <v>213881.7632889258</v>
       </c>
       <c r="N6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889257</v>
       </c>
       <c r="O6" t="n">
-        <v>226099.7739089662</v>
+        <v>213881.7632889257</v>
       </c>
       <c r="P6" t="n">
-        <v>226099.7739089661</v>
+        <v>213881.7632889258</v>
       </c>
     </row>
   </sheetData>
@@ -27387,22 +27387,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>328.417841062312</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.5197498206499</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,22 +27432,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>332.7254096461039</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1459394241614</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,19 +27469,19 @@
         <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.20968161124688</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27554,7 +27554,7 @@
         <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27581,7 +27581,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>60.00013368622585</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,10 +27590,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>260.1571197910224</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>149.0860989846203</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>163.8065399322598</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,10 +27751,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5117130164528</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>127.4190336299326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>319.1698855250446</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>27.67720887694546</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>199.108820161109</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34707,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34789,16 +34789,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="O3" t="n">
-        <v>51.35040662570936</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37399,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>55.51629994036219</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38028,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
